--- a/lab1/datasets/comprehensive_dataset.xlsx
+++ b/lab1/datasets/comprehensive_dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="11280" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CIA factbook" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7419" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="489">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -282,9 +282,6 @@
     <t>ETC_Code</t>
   </si>
   <si>
-    <t>ECF_Name</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>ETU</t>
-  </si>
-  <si>
     <t>FRENCH RED CROSS</t>
   </si>
   <si>
@@ -834,9 +828,6 @@
     <t>Acronym</t>
   </si>
   <si>
-    <t>Organisation</t>
-  </si>
-  <si>
     <t>UNFPA</t>
   </si>
   <si>
@@ -1501,6 +1492,12 @@
   </si>
   <si>
     <t>Chinese Center for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>ETC_Name</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1889,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1963,7 +1960,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1973,13 +1970,13 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>488</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1987,13 +1984,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2001,13 +1998,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2015,13 +2012,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2029,13 +2026,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2043,13 +2040,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,13 +2054,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,13 +2068,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2085,13 +2082,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,13 +2096,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,13 +2110,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,13 +2124,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,13 +2138,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2155,13 +2152,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,13 +2166,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2183,13 +2180,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,13 +2194,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,13 +2208,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2225,13 +2222,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2239,13 +2236,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,13 +2250,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,13 +2264,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2295,13 +2292,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2323,13 +2320,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2337,13 +2334,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2351,13 +2348,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2365,13 +2362,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2379,13 +2376,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2393,13 +2390,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,13 +2404,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,13 +2418,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2435,13 +2432,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2449,13 +2446,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2463,13 +2460,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,13 +2474,13 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C37" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,13 +2488,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,13 +2502,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2519,13 +2516,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2533,13 +2530,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2547,13 +2544,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2561,13 +2558,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2575,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,13 +2586,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2603,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,13 +2614,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,13 +2628,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2645,13 +2642,13 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2659,13 +2656,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2673,13 +2670,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2687,13 +2684,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2701,13 +2698,13 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2715,13 +2712,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2729,13 +2726,13 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2743,13 +2740,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C56" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2757,13 +2754,13 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C57" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D57" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2771,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C58" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,13 +2782,13 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2799,13 +2796,13 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D60" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2813,13 +2810,13 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C61" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D61" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2827,13 +2824,13 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2841,13 +2838,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2855,13 +2852,13 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D64" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,13 +2866,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2883,13 +2880,13 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,13 +2894,13 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D67" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2911,13 +2908,13 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D68" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,13 +2922,13 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2939,13 +2936,13 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2953,13 +2950,13 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D71" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,13 +2964,13 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D72" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,13 +2978,13 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C73" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,13 +2992,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D74" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,13 +3006,13 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C75" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3023,13 +3020,13 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D76" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3051,13 +3048,13 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D78" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3065,13 +3062,13 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3079,13 +3076,13 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3093,13 +3090,13 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3107,13 +3104,13 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D82" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3121,13 +3118,13 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3135,13 +3132,13 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C84" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3149,13 +3146,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C85" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D85" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3163,13 +3160,13 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C86" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D86" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,13 +3174,13 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3191,13 +3188,13 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C88" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3205,13 +3202,13 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C89" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,13 +3216,13 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C90" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3233,13 +3230,13 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,13 +3244,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D92" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,13 +3258,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D93" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3275,13 +3272,13 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C94" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3289,13 +3286,13 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3303,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C96" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D96" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3317,13 +3314,13 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C97" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,13 +3328,13 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C98" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3345,13 +3342,13 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C99" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D99" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3359,13 +3356,13 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C100" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3373,13 +3370,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C101" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,13 +3384,13 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C102" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D102" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3401,13 +3398,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C103" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3415,13 +3412,13 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D104" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3429,13 +3426,13 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,13 +3440,13 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D106" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,13 +3454,13 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C107" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3471,13 +3468,13 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D108" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3485,13 +3482,13 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3499,13 +3496,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D110" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3513,13 +3510,13 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3527,13 +3524,13 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C112" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D112" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,13 +3538,13 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,13 +3552,13 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C114" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D114" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,13 +3566,13 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C115" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D115" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,13 +3580,13 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C116" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3597,13 +3594,13 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C117" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3611,13 +3608,13 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3625,13 +3622,13 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C119" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3639,13 +3636,13 @@
         <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C120" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D120" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,13 +3650,13 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,13 +3664,13 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C122" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3681,13 +3678,13 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3695,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D124" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3709,13 +3706,13 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3723,13 +3720,13 @@
         <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,13 +3734,13 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3751,13 +3748,13 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,13 +3762,13 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C129" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D129" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,13 +3776,13 @@
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C130" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D130" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3793,13 +3790,13 @@
         <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C131" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D131" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,13 +3804,13 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3821,13 +3818,13 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C133" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,13 +3832,13 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D134" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3849,13 +3846,13 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C135" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3863,13 +3860,13 @@
         <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C136" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D136" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,139 +3874,139 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C137" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B138" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B142" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C142" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D142" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D144" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B145" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C145" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B146" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D146" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -4017,13 +4014,13 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C147" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D147" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,13 +4028,13 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,13 +4042,13 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C149" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D149" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,13 +4056,13 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C150" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D150" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,13 +4070,13 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C151" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,13 +4084,13 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C152" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D152" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,13 +4098,13 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C153" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D153" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,13 +4112,13 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C154" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,13 +4126,13 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C155" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D155" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,13 +4140,13 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C156" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,13 +4154,13 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C157" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D157" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4173,23 +4170,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>85</v>
@@ -4207,1955 +4204,1769 @@
         <v>89</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15">
+        <v>70</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="15">
+        <v>8.5410000000000004</v>
+      </c>
+      <c r="G2" s="15">
+        <v>-9.4710000000000001</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="15">
-        <v>70</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="I2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="15">
-        <v>8.5410000000000004</v>
-      </c>
-      <c r="H2" s="15">
-        <v>-9.4710000000000001</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="C3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="15">
+        <v>100</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="15">
+        <v>8.5619999999999994</v>
+      </c>
+      <c r="G3" s="15">
+        <v>-10.132999999999999</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="15">
+        <v>70</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="F4" s="15">
+        <v>9.5350000000000001</v>
+      </c>
+      <c r="G4" s="15">
+        <v>-13.683</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="15">
+      <c r="I4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="15">
-        <v>8.5619999999999994</v>
-      </c>
-      <c r="H3" s="15">
-        <v>-10.132999999999999</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="15">
+        <v>9.73</v>
+      </c>
+      <c r="G5" s="15">
+        <v>-13.420999999999999</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="15">
+        <v>8.69</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-8.6479999999999997</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="15">
+        <v>7.7560000000000002</v>
+      </c>
+      <c r="G7" s="15">
+        <v>-8.82</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="15">
+        <v>9.2741000000000007</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-9.0032599999999992</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
+        <v>9.7301120000000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-13.420809999999999</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="15">
+        <v>10.382999999999999</v>
+      </c>
+      <c r="G10" s="15">
+        <v>-9.3049999999999997</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4.67654149</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-8.2348949499999993</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7.0639017800000001</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-10.490690799999999</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5.8881033699999996</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-10.03322255</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="15">
+        <v>6.4899591000000001</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-8.8599929100000008</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="15">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-8.66</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="15">
+        <v>4.3934105099999998</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-7.6925200199999999</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5.1963900000000001</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-7.8760000000000003</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="15">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="15">
+        <v>6.8160545499999996</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-11.13382627</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="15">
+        <v>6.0649570500000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-8.1380602</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="15">
+        <v>8.4165836299999999</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-9.7499681200000001</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="15">
+        <v>6.2872300000000001</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-10.773250000000001</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="15">
+        <v>6.2567560599999998</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-10.700455939999999</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="15">
+        <v>50</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="15">
+        <v>6.2574459500000001</v>
+      </c>
+      <c r="G23" s="15">
+        <v>-10.7005257</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="15">
+        <v>6.2681519999999997</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-10.731191000000001</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15">
+        <v>6.5399390400000001</v>
+      </c>
+      <c r="G25" s="15">
+        <v>-10.34222136</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
+        <v>6.7520123099999996</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-11.36470465</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="15">
+        <v>7.2374999999999998</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-8.9814000000000007</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="15">
+        <v>60</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="15">
+        <v>6.2444399900000001</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-10.700279999999999</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="15">
         <v>100</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="E29" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="15">
+        <v>6.2396500000000001</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-10.696</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="15">
+        <v>100</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="15">
+        <v>6.2580090500000001</v>
+      </c>
+      <c r="G30" s="15">
+        <v>-10.70336322</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="15">
+        <v>31</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="15">
+        <v>6.3530599800000003</v>
+      </c>
+      <c r="G31" s="15">
+        <v>-10.46971999</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="15">
+        <v>100</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="15">
+        <v>6.8687507300000004</v>
+      </c>
+      <c r="G32" s="15">
+        <v>-10.82040988</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="15">
+        <v>50</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="15">
+        <v>6.3890352200000002</v>
+      </c>
+      <c r="G33" s="15">
+        <v>-10.79283257</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="15">
+        <v>71</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="15">
+        <v>7.0046689999999998</v>
+      </c>
+      <c r="G34" s="15">
+        <v>-9.5551440000000003</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="15">
+        <v>150</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="15">
+        <v>6.3843715999999997</v>
+      </c>
+      <c r="G35" s="15">
+        <v>-10.7871135</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="15">
+        <v>22</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="15">
+        <v>6.3133330000000001</v>
+      </c>
+      <c r="G36" s="15">
+        <v>-10.801389</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="15">
+        <v>8.3789113000000004</v>
+      </c>
+      <c r="G37" s="15">
+        <v>-10.20575665</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="15">
+        <v>40</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="15">
+        <v>6.2702799999999996</v>
+      </c>
+      <c r="G38" s="15">
+        <v>-10.734170000000001</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="15">
+        <v>50</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="15">
+        <v>6.5275235599999997</v>
+      </c>
+      <c r="G39" s="15">
+        <v>-10.360384229999999</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="15">
+        <v>36</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="15">
+        <v>7.2373265900000003</v>
+      </c>
+      <c r="G40" s="15">
+        <v>-8.9813228699999996</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="15">
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-9.5879999999999992</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="15">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="G42" s="15">
+        <v>-9.423</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="15">
+        <v>32</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="15">
+        <v>8.4243210000000008</v>
+      </c>
+      <c r="G43" s="15">
+        <v>-13.280407</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="15">
-        <v>70</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="15">
-        <v>9.5350000000000001</v>
-      </c>
-      <c r="H4" s="15">
-        <v>-13.683</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="I43" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="15">
+        <v>10</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="15">
+        <v>8.382142</v>
+      </c>
+      <c r="G44" s="15">
+        <v>-13.140651999999999</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="15">
+        <v>20</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="15">
+        <v>8.3827049999999996</v>
+      </c>
+      <c r="G45" s="15">
+        <v>-13.125851000000001</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="I45" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="15">
+        <v>7</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="15">
+        <v>8.2570949999999996</v>
+      </c>
+      <c r="G46" s="15">
+        <v>-13.086371</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="15">
+      <c r="I46" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="15">
+        <v>20</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="15">
+        <v>8.7766500000000001</v>
+      </c>
+      <c r="G47" s="15">
+        <v>-12.76239</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="15">
+        <v>20</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="15">
+        <v>8.6985399999999995</v>
+      </c>
+      <c r="G48" s="15">
+        <v>-12.576560000000001</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="15">
+        <v>30</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="15">
+        <v>8.1778928999999998</v>
+      </c>
+      <c r="G49" s="15">
+        <v>-12.41256334</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="15">
+        <v>5</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="15">
+        <v>8.3868609099999993</v>
+      </c>
+      <c r="G50" s="15">
+        <v>-13.149548490000001</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="15">
-        <v>9.73</v>
-      </c>
-      <c r="H5" s="15">
-        <v>-13.420999999999999</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="E51" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="15">
         <v>0</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="15">
-        <v>8.69</v>
-      </c>
-      <c r="H6" s="15">
-        <v>-8.6479999999999997</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="15">
-        <v>7.7560000000000002</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-8.82</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="15">
-        <v>9.2741000000000007</v>
-      </c>
-      <c r="H8" s="15">
-        <v>-9.0032599999999992</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
-        <v>9.7301120000000001</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-13.420809999999999</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="15">
-        <v>10.382999999999999</v>
-      </c>
-      <c r="H10" s="15">
-        <v>-9.3049999999999997</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="15">
-        <v>4.67654149</v>
-      </c>
-      <c r="H11" s="15">
-        <v>-8.2348949499999993</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="15">
-        <v>7.0639017800000001</v>
-      </c>
-      <c r="H12" s="15">
-        <v>-10.490690799999999</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="15">
-        <v>5.8881033699999996</v>
-      </c>
-      <c r="H13" s="15">
-        <v>-10.03322255</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="15">
-        <v>6.4899591000000001</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-8.8599929100000008</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="15">
-        <v>5.4980000000000002</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-8.66</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="15">
-        <v>4.3934105099999998</v>
-      </c>
-      <c r="H16" s="15">
-        <v>-7.6925200199999999</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="15">
-        <v>5.1963900000000001</v>
-      </c>
-      <c r="H17" s="15">
-        <v>-7.8760000000000003</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="15">
-        <v>50</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="15">
-        <v>6.8160545499999996</v>
-      </c>
-      <c r="H18" s="15">
-        <v>-11.13382627</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="15">
-        <v>6.0649570500000003</v>
-      </c>
-      <c r="H19" s="15">
-        <v>-8.1380602</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="15">
-        <v>8.4165836299999999</v>
-      </c>
-      <c r="H20" s="15">
-        <v>-9.7499681200000001</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="15">
-        <v>6.2872300000000001</v>
-      </c>
-      <c r="H21" s="15">
-        <v>-10.773250000000001</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="15">
-        <v>6.2567560599999998</v>
-      </c>
-      <c r="H22" s="15">
-        <v>-10.700455939999999</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="15">
-        <v>50</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="15">
-        <v>6.2574459500000001</v>
-      </c>
-      <c r="H23" s="15">
-        <v>-10.7005257</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="15">
-        <v>6.2681519999999997</v>
-      </c>
-      <c r="H24" s="15">
-        <v>-10.731191000000001</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15">
-        <v>6.5399390400000001</v>
-      </c>
-      <c r="H25" s="15">
-        <v>-10.34222136</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15">
-        <v>6.7520123099999996</v>
-      </c>
-      <c r="H26" s="15">
-        <v>-11.36470465</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="15">
-        <v>7.2374999999999998</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-8.9814000000000007</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15">
-        <v>60</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="15">
-        <v>6.2444399900000001</v>
-      </c>
-      <c r="H28" s="15">
-        <v>-10.700279999999999</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="15">
-        <v>100</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="15">
-        <v>6.2396500000000001</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-10.696</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="15">
-        <v>100</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="15">
-        <v>6.2580090500000001</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-10.70336322</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="15">
-        <v>31</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="15">
-        <v>6.3530599800000003</v>
-      </c>
-      <c r="H31" s="15">
-        <v>-10.46971999</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="15">
-        <v>100</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="15">
-        <v>6.8687507300000004</v>
-      </c>
-      <c r="H32" s="15">
-        <v>-10.82040988</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="15">
-        <v>50</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="15">
-        <v>6.3890352200000002</v>
-      </c>
-      <c r="H33" s="15">
-        <v>-10.79283257</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="15">
-        <v>71</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="15">
-        <v>7.0046689999999998</v>
-      </c>
-      <c r="H34" s="15">
-        <v>-9.5551440000000003</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="15">
-        <v>150</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="15">
-        <v>6.3843715999999997</v>
-      </c>
-      <c r="H35" s="15">
-        <v>-10.7871135</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="15">
-        <v>22</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="15">
-        <v>6.3133330000000001</v>
-      </c>
-      <c r="H36" s="15">
-        <v>-10.801389</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="15">
-        <v>8.3789113000000004</v>
-      </c>
-      <c r="H37" s="15">
-        <v>-10.20575665</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="15">
-        <v>40</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="15">
-        <v>6.2702799999999996</v>
-      </c>
-      <c r="H38" s="15">
-        <v>-10.734170000000001</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="15">
-        <v>50</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="15">
-        <v>6.5275235599999997</v>
-      </c>
-      <c r="H39" s="15">
-        <v>-10.360384229999999</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="15">
-        <v>36</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="15">
-        <v>7.2373265900000003</v>
-      </c>
-      <c r="H40" s="15">
-        <v>-8.9813228699999996</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="15">
-        <v>5.4829999999999997</v>
-      </c>
-      <c r="H41" s="15">
-        <v>-9.5879999999999992</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" s="15">
-        <v>7.7759999999999998</v>
-      </c>
-      <c r="H42" s="15">
-        <v>-9.423</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="15">
-        <v>32</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G43" s="15">
-        <v>8.4243210000000008</v>
-      </c>
-      <c r="H43" s="15">
-        <v>-13.280407</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="15">
-        <v>10</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" s="15">
-        <v>8.382142</v>
-      </c>
-      <c r="H44" s="15">
-        <v>-13.140651999999999</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="15">
-        <v>20</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G45" s="15">
-        <v>8.3827049999999996</v>
-      </c>
-      <c r="H45" s="15">
-        <v>-13.125851000000001</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="15">
-        <v>7</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G46" s="15">
-        <v>8.2570949999999996</v>
-      </c>
-      <c r="H46" s="15">
-        <v>-13.086371</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="15">
-        <v>20</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G47" s="15">
-        <v>8.7766500000000001</v>
-      </c>
-      <c r="H47" s="15">
-        <v>-12.76239</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="15">
-        <v>20</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="15">
-        <v>8.6985399999999995</v>
-      </c>
-      <c r="H48" s="15">
-        <v>-12.576560000000001</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="15">
-        <v>30</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="15">
-        <v>8.1778928999999998</v>
-      </c>
-      <c r="H49" s="15">
-        <v>-12.41256334</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="15">
-        <v>5</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="G50" s="15">
-        <v>8.3868609099999993</v>
-      </c>
-      <c r="H50" s="15">
-        <v>-13.149548490000001</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="15">
-        <v>0</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="15">
+        <v>12</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="15">
+        <v>8.0050880000000006</v>
+      </c>
+      <c r="G52" s="15">
+        <v>-11.115600000000001</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="15">
+        <v>25</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="15">
+        <v>8.6300380000000008</v>
+      </c>
+      <c r="G53" s="15">
+        <v>-10.958743</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="15">
+        <v>104</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="15">
+        <v>7.9410400000000001</v>
+      </c>
+      <c r="G54" s="15">
+        <v>-11.669700000000001</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="15">
+        <v>100</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="15">
+        <v>8.7985682000000001</v>
+      </c>
+      <c r="G55" s="15">
+        <v>-12.03104834</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="15">
+        <v>50</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" s="15">
+        <v>8.3827044999999991</v>
+      </c>
+      <c r="G56" s="15">
+        <v>-13.12585093</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="15">
+        <v>44</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="15">
+        <v>8.7498400000000007</v>
+      </c>
+      <c r="G57" s="15">
+        <v>-12.772399999999999</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="15">
-        <v>12</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G52" s="15">
-        <v>8.0050880000000006</v>
-      </c>
-      <c r="H52" s="15">
-        <v>-11.115600000000001</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="15">
-        <v>25</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="15">
-        <v>8.6300380000000008</v>
-      </c>
-      <c r="H53" s="15">
-        <v>-10.958743</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="15">
-        <v>104</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G54" s="15">
-        <v>7.9410400000000001</v>
-      </c>
-      <c r="H54" s="15">
-        <v>-11.669700000000001</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="15">
-        <v>100</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="G55" s="15">
-        <v>8.7985682000000001</v>
-      </c>
-      <c r="H55" s="15">
-        <v>-12.03104834</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="15">
-        <v>50</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" s="15">
-        <v>8.3827044999999991</v>
-      </c>
-      <c r="H56" s="15">
-        <v>-13.12585093</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="15">
-        <v>44</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="G57" s="15">
-        <v>8.7498400000000007</v>
-      </c>
-      <c r="H57" s="15">
-        <v>-12.772399999999999</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="E58" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="15">
+      <c r="F58" s="15">
         <v>0</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="G58" s="15">
         <v>0</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="15">
+        <v>10</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="15">
+        <v>8.4642169999999997</v>
+      </c>
+      <c r="G59" s="15">
+        <v>-13.261241999999999</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="15">
+        <v>50</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="15">
+        <v>8.7361699999999995</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-11.923539999999999</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="15">
+        <v>15</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" s="15">
         <v>0</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="15">
-        <v>10</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G59" s="15">
-        <v>8.4642169999999997</v>
-      </c>
-      <c r="H59" s="15">
-        <v>-13.261241999999999</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="15">
-        <v>50</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G60" s="15">
-        <v>8.7361699999999995</v>
-      </c>
-      <c r="H60" s="15">
-        <v>-11.923539999999999</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="15">
-        <v>15</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
       </c>
-      <c r="H61" s="15">
-        <v>0</v>
+      <c r="H61" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="15">
+        <v>10</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="15">
-        <v>10</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>265</v>
+      <c r="F62" s="15">
+        <v>8.3342130000000001</v>
       </c>
       <c r="G62" s="15">
-        <v>8.3342130000000001</v>
-      </c>
-      <c r="H62" s="15">
         <v>-13.07302</v>
       </c>
+      <c r="H62" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="I62" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J62" s="15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/lab1/datasets/comprehensive_dataset.xlsx
+++ b/lab1/datasets/comprehensive_dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="14340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CIA factbook" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7446" uniqueCount="524">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Under Construction</t>
   </si>
   <si>
-    <t>Cuba?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -768,9 +765,6 @@
     <t>Police Training Sch-Hastings 2</t>
   </si>
   <si>
-    <t>MOH/RSLAF</t>
-  </si>
-  <si>
     <t>SLE_0023</t>
   </si>
   <si>
@@ -1488,9 +1482,6 @@
     <t>Living Water International Sierra Leone</t>
   </si>
   <si>
-    <t>China CDC</t>
-  </si>
-  <si>
     <t>Chinese Center for Disease Control and Prevention</t>
   </si>
   <si>
@@ -1498,6 +1489,120 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>MoH/RSLAF</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>Partners in Health</t>
+  </si>
+  <si>
+    <t>German RC</t>
+  </si>
+  <si>
+    <t>German Armed Forces</t>
+  </si>
+  <si>
+    <t>Nimba CHT</t>
+  </si>
+  <si>
+    <t>PCI</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Cuban FMT</t>
+  </si>
+  <si>
+    <t>Methodist Church</t>
+  </si>
+  <si>
+    <t>RSLAF</t>
+  </si>
+  <si>
+    <t>KINGS</t>
+  </si>
+  <si>
+    <t>PHE</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>DTRA</t>
+  </si>
+  <si>
+    <t>PHA-Canada</t>
+  </si>
+  <si>
+    <t>Well Body</t>
+  </si>
+  <si>
+    <t>PIH</t>
+  </si>
+  <si>
+    <t>Addax</t>
+  </si>
+  <si>
+    <t>OCNML</t>
+  </si>
+  <si>
+    <t>Women and Health Alliance International</t>
+  </si>
+  <si>
+    <t>Institute of Medicine</t>
+  </si>
+  <si>
+    <t>African Risk Capacity</t>
+  </si>
+  <si>
+    <t>Nimba Country Health Team</t>
+  </si>
+  <si>
+    <t>Project Concern International</t>
+  </si>
+  <si>
+    <t>Médecins Sans Frontières Brussels</t>
+  </si>
+  <si>
+    <t>African Union</t>
+  </si>
+  <si>
+    <t>US Public Health Service</t>
+  </si>
+  <si>
+    <t>Cuban Foreign Medical Team</t>
+  </si>
+  <si>
+    <t>Chinese Foreign Medical Team</t>
+  </si>
+  <si>
+    <t>Republic of Sierra Leone Armed Forces</t>
+  </si>
+  <si>
+    <t>King's Sierra Leone Partnership</t>
+  </si>
+  <si>
+    <t>Public Health England</t>
+  </si>
+  <si>
+    <t>Médecins du Monde</t>
+  </si>
+  <si>
+    <t>Defense Threat Reduction Agency</t>
+  </si>
+  <si>
+    <t>Public Health Agency-Canada</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1957,23 +2062,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D1" t="s">
         <v>84</v>
@@ -1984,13 +2094,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1998,13 +2108,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2012,13 +2122,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2026,13 +2136,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
         <v>273</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2040,13 +2150,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2054,13 +2164,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2068,13 +2178,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2082,13 +2192,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2096,13 +2206,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s">
         <v>284</v>
-      </c>
-      <c r="C10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2110,13 +2220,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2124,13 +2234,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="s">
         <v>288</v>
-      </c>
-      <c r="C12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,10 +2251,10 @@
         <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2152,13 +2262,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2166,13 +2276,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2180,13 +2290,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" t="s">
         <v>296</v>
-      </c>
-      <c r="C16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,13 +2304,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2208,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,13 +2332,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,13 +2346,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,13 +2360,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,13 +2374,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,13 +2388,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,13 +2402,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,13 +2416,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2320,13 +2430,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2334,13 +2444,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2348,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,13 +2472,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,13 +2486,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,13 +2500,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2404,13 +2514,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2418,13 +2528,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2432,13 +2542,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2446,13 +2556,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2460,13 +2570,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2474,13 +2584,13 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,13 +2598,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2502,13 +2612,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2516,13 +2626,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2530,13 +2640,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,13 +2654,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2558,13 +2668,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" t="s">
         <v>339</v>
-      </c>
-      <c r="C43" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,13 +2696,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,13 +2710,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2614,13 +2724,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C47" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2628,13 +2738,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2642,13 +2752,13 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,13 +2766,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2670,13 +2780,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2684,13 +2794,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2698,13 +2808,13 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2712,13 +2822,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2726,13 +2836,13 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2740,13 +2850,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2754,13 +2864,13 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
         <v>363</v>
-      </c>
-      <c r="C57" t="s">
-        <v>364</v>
-      </c>
-      <c r="D57" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2768,13 +2878,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2782,13 +2892,13 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2796,13 +2906,13 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2810,13 +2920,13 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D61" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2824,13 +2934,13 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" t="s">
         <v>270</v>
-      </c>
-      <c r="C62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D62" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2838,13 +2948,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2852,13 +2962,13 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2866,13 +2976,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2880,13 +2990,13 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2894,13 +3004,13 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C67" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D67" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2908,13 +3018,13 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,13 +3032,13 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D69" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2936,13 +3046,13 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
         <v>273</v>
-      </c>
-      <c r="C70" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2950,13 +3060,13 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D71" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2964,13 +3074,13 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C72" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D72" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2978,13 +3088,13 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C73" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2992,13 +3102,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3006,13 +3116,13 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D75" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3020,13 +3130,13 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3034,13 +3144,13 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" t="s">
         <v>284</v>
-      </c>
-      <c r="C77" t="s">
-        <v>285</v>
-      </c>
-      <c r="D77" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3048,13 +3158,13 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3062,13 +3172,13 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3076,13 +3186,13 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3090,13 +3200,13 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D81" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3104,13 +3214,13 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" t="s">
+        <v>395</v>
+      </c>
+      <c r="D82" t="s">
         <v>396</v>
-      </c>
-      <c r="C82" t="s">
-        <v>397</v>
-      </c>
-      <c r="D82" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3118,13 +3228,13 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3132,13 +3242,13 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3146,13 +3256,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C85" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3160,13 +3270,13 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D86" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,13 +3284,13 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C87" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D87" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,13 +3298,13 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C88" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3202,13 +3312,13 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C89" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3216,13 +3326,13 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,13 +3340,13 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3244,13 +3354,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3258,13 +3368,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3272,13 +3382,13 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3286,13 +3396,13 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D95" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3300,13 +3410,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D96" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3314,13 +3424,13 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3328,13 +3438,13 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C98" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C99" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3356,13 +3466,13 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C100" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3370,13 +3480,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C101" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3384,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C102" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3398,13 +3508,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3412,13 +3522,13 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C104" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3426,13 +3536,13 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C105" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D105" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3440,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C106" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D106" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3454,13 +3564,13 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C107" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3468,13 +3578,13 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3482,13 +3592,13 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C109" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D109" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3496,13 +3606,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3510,13 +3620,13 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C111" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3524,13 +3634,13 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D112" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3538,13 +3648,13 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D113" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3552,13 +3662,13 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3566,13 +3676,13 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3580,13 +3690,13 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3594,13 +3704,13 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D117" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,13 +3718,13 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C118" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D118" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3622,13 +3732,13 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C119" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D119" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3636,13 +3746,13 @@
         <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C120" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3650,13 +3760,13 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C121" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D121" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3664,13 +3774,13 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C122" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D122" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3678,13 +3788,13 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C123" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D123" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3692,13 +3802,13 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C124" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D124" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3706,13 +3816,13 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C125" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3720,13 +3830,13 @@
         <v>4</v>
       </c>
       <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" t="s">
+        <v>264</v>
+      </c>
+      <c r="D126" t="s">
         <v>265</v>
-      </c>
-      <c r="C126" t="s">
-        <v>266</v>
-      </c>
-      <c r="D126" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3734,13 +3844,13 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3748,13 +3858,13 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3762,13 +3872,13 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C129" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3776,13 +3886,13 @@
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C130" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D130" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3790,13 +3900,13 @@
         <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C131" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3804,13 +3914,13 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3818,13 +3928,13 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C133" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3832,13 +3942,13 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C134" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D134" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3846,13 +3956,13 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D135" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3860,13 +3970,13 @@
         <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C136" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D136" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3874,139 +3984,139 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C137" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D137" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B141" t="s">
         <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>467</v>
+      </c>
+      <c r="B142" t="s">
+        <v>468</v>
+      </c>
+      <c r="C142" t="s">
         <v>469</v>
       </c>
-      <c r="B142" t="s">
-        <v>470</v>
-      </c>
-      <c r="C142" t="s">
-        <v>471</v>
-      </c>
       <c r="D142" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D143" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B145" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C145" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D145" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B146" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C146" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D146" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -4014,13 +4124,13 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C147" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4028,13 +4138,13 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" t="s">
+        <v>269</v>
+      </c>
+      <c r="D148" t="s">
         <v>270</v>
-      </c>
-      <c r="C148" t="s">
-        <v>271</v>
-      </c>
-      <c r="D148" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4042,13 +4152,13 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,13 +4166,13 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C150" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D150" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,13 +4180,13 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C151" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,13 +4194,13 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C152" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D152" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,13 +4208,13 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C153" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4112,13 +4222,13 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4126,13 +4236,13 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C155" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4140,13 +4250,13 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C156" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D156" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,13 +4264,349 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>485</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D157" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>487</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>489</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>491</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>494</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>495</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>187</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>496</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>498</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>499</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>500</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>501</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>502</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>503</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>505</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>507</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4170,20 +4616,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>83</v>
@@ -4307,9 +4756,7 @@
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="15">
         <v>9.73</v>
       </c>
@@ -4317,7 +4764,7 @@
         <v>-13.420999999999999</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>6</v>
@@ -4325,10 +4772,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>102</v>
@@ -4337,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="15">
         <v>8.69</v>
@@ -4346,7 +4793,7 @@
         <v>-8.6479999999999997</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>6</v>
@@ -4354,10 +4801,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>92</v>
@@ -4366,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="15">
         <v>7.7560000000000002</v>
@@ -4375,7 +4822,7 @@
         <v>-8.82</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>6</v>
@@ -4383,10 +4830,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>102</v>
@@ -4395,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="15">
         <v>9.2741000000000007</v>
@@ -4404,7 +4851,7 @@
         <v>-9.0032599999999992</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>6</v>
@@ -4412,10 +4859,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>102</v>
@@ -4431,7 +4878,7 @@
         <v>-13.420809999999999</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>6</v>
@@ -4439,10 +4886,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>102</v>
@@ -4460,7 +4907,7 @@
         <v>-9.3049999999999997</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>6</v>
@@ -4468,10 +4915,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>102</v>
@@ -4480,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="15">
         <v>4.67654149</v>
@@ -4489,7 +4936,7 @@
         <v>-8.2348949499999993</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>4</v>
@@ -4497,10 +4944,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>102</v>
@@ -4509,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="15">
         <v>7.0639017800000001</v>
@@ -4518,7 +4965,7 @@
         <v>-10.490690799999999</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>4</v>
@@ -4526,10 +4973,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>92</v>
@@ -4538,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="15">
         <v>5.8881033699999996</v>
@@ -4547,7 +4994,7 @@
         <v>-10.03322255</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>4</v>
@@ -4555,10 +5002,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>102</v>
@@ -4567,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="15">
         <v>6.4899591000000001</v>
@@ -4576,7 +5023,7 @@
         <v>-8.8599929100000008</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>4</v>
@@ -4584,10 +5031,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>102</v>
@@ -4596,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="15">
         <v>5.4980000000000002</v>
@@ -4605,7 +5052,7 @@
         <v>-8.66</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>4</v>
@@ -4613,10 +5060,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>102</v>
@@ -4625,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="15">
         <v>4.3934105099999998</v>
@@ -4634,7 +5081,7 @@
         <v>-7.6925200199999999</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>4</v>
@@ -4642,10 +5089,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>102</v>
@@ -4654,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="15">
         <v>5.1963900000000001</v>
@@ -4663,7 +5110,7 @@
         <v>-7.8760000000000003</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>4</v>
@@ -4671,10 +5118,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>92</v>
@@ -4683,7 +5130,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="15">
         <v>6.8160545499999996</v>
@@ -4692,7 +5139,7 @@
         <v>-11.13382627</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>4</v>
@@ -4700,10 +5147,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>92</v>
@@ -4712,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="15">
         <v>6.0649570500000003</v>
@@ -4721,7 +5168,7 @@
         <v>-8.1380602</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>4</v>
@@ -4729,10 +5176,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>102</v>
@@ -4741,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="15">
         <v>8.4165836299999999</v>
@@ -4750,7 +5197,7 @@
         <v>-9.7499681200000001</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>4</v>
@@ -4758,19 +5205,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="15">
         <v>6.2872300000000001</v>
@@ -4779,7 +5226,7 @@
         <v>-10.773250000000001</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>4</v>
@@ -4787,10 +5234,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>102</v>
@@ -4799,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="15">
         <v>6.2567560599999998</v>
@@ -4808,7 +5255,7 @@
         <v>-10.700455939999999</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>4</v>
@@ -4816,10 +5263,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>92</v>
@@ -4828,7 +5275,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="15">
         <v>6.2574459500000001</v>
@@ -4837,7 +5284,7 @@
         <v>-10.7005257</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>4</v>
@@ -4845,19 +5292,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="C24" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="15">
         <v>0</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="15">
         <v>6.2681519999999997</v>
@@ -4866,7 +5313,7 @@
         <v>-10.731191000000001</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>4</v>
@@ -4874,13 +5321,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="15">
         <v>0</v>
@@ -4893,7 +5340,7 @@
         <v>-10.34222136</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>4</v>
@@ -4901,13 +5348,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="15">
         <v>0</v>
@@ -4920,7 +5367,7 @@
         <v>-11.36470465</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>4</v>
@@ -4928,10 +5375,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>102</v>
@@ -4940,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="15">
         <v>7.2374999999999998</v>
@@ -4949,7 +5396,7 @@
         <v>-8.9814000000000007</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>4</v>
@@ -4957,10 +5404,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>92</v>
@@ -4969,7 +5416,7 @@
         <v>60</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F28" s="15">
         <v>6.2444399900000001</v>
@@ -4978,7 +5425,7 @@
         <v>-10.700279999999999</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>4</v>
@@ -4986,10 +5433,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>92</v>
@@ -4998,7 +5445,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="15">
         <v>6.2396500000000001</v>
@@ -5007,7 +5454,7 @@
         <v>-10.696</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>4</v>
@@ -5015,10 +5462,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>92</v>
@@ -5027,7 +5474,7 @@
         <v>100</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F30" s="15">
         <v>6.2580090500000001</v>
@@ -5036,7 +5483,7 @@
         <v>-10.70336322</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>4</v>
@@ -5044,10 +5491,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>92</v>
@@ -5056,7 +5503,7 @@
         <v>31</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31" s="15">
         <v>6.3530599800000003</v>
@@ -5065,7 +5512,7 @@
         <v>-10.46971999</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>4</v>
@@ -5073,10 +5520,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>92</v>
@@ -5085,7 +5532,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="15">
         <v>6.8687507300000004</v>
@@ -5094,7 +5541,7 @@
         <v>-10.82040988</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>4</v>
@@ -5102,10 +5549,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>92</v>
@@ -5114,7 +5561,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F33" s="15">
         <v>6.3890352200000002</v>
@@ -5123,7 +5570,7 @@
         <v>-10.79283257</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>4</v>
@@ -5131,10 +5578,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>92</v>
@@ -5143,7 +5590,7 @@
         <v>71</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="15">
         <v>7.0046689999999998</v>
@@ -5152,7 +5599,7 @@
         <v>-9.5551440000000003</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>4</v>
@@ -5160,10 +5607,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>92</v>
@@ -5172,7 +5619,7 @@
         <v>150</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F35" s="15">
         <v>6.3843715999999997</v>
@@ -5181,7 +5628,7 @@
         <v>-10.7871135</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>4</v>
@@ -5189,10 +5636,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>92</v>
@@ -5201,7 +5648,7 @@
         <v>22</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="15">
         <v>6.3133330000000001</v>
@@ -5210,7 +5657,7 @@
         <v>-10.801389</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>4</v>
@@ -5218,13 +5665,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="C37" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -5239,7 +5686,7 @@
         <v>-10.20575665</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>4</v>
@@ -5247,10 +5694,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>92</v>
@@ -5259,7 +5706,7 @@
         <v>40</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="15">
         <v>6.2702799999999996</v>
@@ -5268,7 +5715,7 @@
         <v>-10.734170000000001</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>4</v>
@@ -5276,10 +5723,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>92</v>
@@ -5288,7 +5735,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" s="15">
         <v>6.5275235599999997</v>
@@ -5297,7 +5744,7 @@
         <v>-10.360384229999999</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>4</v>
@@ -5305,10 +5752,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>92</v>
@@ -5317,7 +5764,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="15">
         <v>7.2373265900000003</v>
@@ -5326,7 +5773,7 @@
         <v>-8.9813228699999996</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>4</v>
@@ -5334,10 +5781,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>102</v>
@@ -5346,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="15">
         <v>5.4829999999999997</v>
@@ -5355,7 +5802,7 @@
         <v>-9.5879999999999992</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>4</v>
@@ -5363,19 +5810,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F42" s="15">
         <v>7.7759999999999998</v>
@@ -5384,7 +5831,7 @@
         <v>-9.423</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>4</v>
@@ -5392,10 +5839,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>92</v>
@@ -5404,7 +5851,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F43" s="15">
         <v>8.4243210000000008</v>
@@ -5421,10 +5868,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>92</v>
@@ -5433,7 +5880,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="15">
         <v>8.382142</v>
@@ -5450,10 +5897,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>92</v>
@@ -5462,7 +5909,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" s="15">
         <v>8.3827049999999996</v>
@@ -5471,7 +5918,7 @@
         <v>-13.125851000000001</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>5</v>
@@ -5479,10 +5926,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>92</v>
@@ -5491,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F46" s="15">
         <v>8.2570949999999996</v>
@@ -5508,10 +5955,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>92</v>
@@ -5520,7 +5967,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F47" s="15">
         <v>8.7766500000000001</v>
@@ -5537,10 +5984,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>92</v>
@@ -5549,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" s="15">
         <v>8.6985399999999995</v>
@@ -5558,7 +6005,7 @@
         <v>-12.576560000000001</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>5</v>
@@ -5566,10 +6013,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>92</v>
@@ -5578,7 +6025,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="15">
         <v>8.1778928999999998</v>
@@ -5595,10 +6042,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>92</v>
@@ -5607,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="15">
         <v>8.3868609099999993</v>
@@ -5624,19 +6071,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>229</v>
-      </c>
       <c r="C51" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
@@ -5645,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>5</v>
@@ -5653,10 +6100,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>92</v>
@@ -5665,7 +6112,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F52" s="15">
         <v>8.0050880000000006</v>
@@ -5674,7 +6121,7 @@
         <v>-11.115600000000001</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>5</v>
@@ -5682,10 +6129,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>92</v>
@@ -5694,7 +6141,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53" s="15">
         <v>8.6300380000000008</v>
@@ -5711,10 +6158,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>92</v>
@@ -5723,7 +6170,7 @@
         <v>104</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="15">
         <v>7.9410400000000001</v>
@@ -5740,10 +6187,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>92</v>
@@ -5752,7 +6199,7 @@
         <v>100</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" s="15">
         <v>8.7985682000000001</v>
@@ -5769,10 +6216,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>92</v>
@@ -5781,7 +6228,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
       <c r="F56" s="15">
         <v>8.3827044999999991</v>
@@ -5790,7 +6237,7 @@
         <v>-13.12585093</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>5</v>
@@ -5798,10 +6245,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>92</v>
@@ -5810,7 +6257,7 @@
         <v>44</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F57" s="15">
         <v>8.7498400000000007</v>
@@ -5819,7 +6266,7 @@
         <v>-12.772399999999999</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>5</v>
@@ -5827,19 +6274,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F58" s="15">
         <v>0</v>
@@ -5848,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>5</v>
@@ -5856,10 +6303,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>92</v>
@@ -5868,7 +6315,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F59" s="15">
         <v>8.4642169999999997</v>
@@ -5877,7 +6324,7 @@
         <v>-13.261241999999999</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>5</v>
@@ -5885,10 +6332,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>92</v>
@@ -5897,7 +6344,7 @@
         <v>50</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F60" s="15">
         <v>8.7361699999999995</v>
@@ -5914,19 +6361,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D61" s="15">
         <v>15</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F61" s="15">
         <v>0</v>
@@ -5943,10 +6390,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>92</v>
@@ -5955,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F62" s="15">
         <v>8.3342130000000001</v>
@@ -5964,11 +6411,32 @@
         <v>-13.07302</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
